--- a/Data/avGFPs/data.xlsx
+++ b/Data/avGFPs/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OOP\ProRF_example\Data\avGFPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBF2695-9F05-4A59-81B3-F09304BCC5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F75D145-673F-45C9-924B-9E9658DEEB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1515" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="2190" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Data/avGFPs/data.xlsx
+++ b/Data/avGFPs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OOP\ProRF_example\Data\avGFPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F75D145-673F-45C9-924B-9E9658DEEB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303CFC0C-EE2C-4785-A74F-62F4C4F846D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5430" yWindow="2190" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="179">
   <si>
     <t>Name</t>
   </si>
@@ -379,181 +379,191 @@
     <t>W2</t>
   </si>
   <si>
+    <t>https://doi.org/10.1073/pnas.91.26.12501</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nbt1172</t>
+  </si>
+  <si>
+    <t>Superfolder YFP</t>
+  </si>
+  <si>
+    <t>rsFolder2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/srep18459</t>
+  </si>
+  <si>
+    <t>rsFolder</t>
+  </si>
+  <si>
+    <t>muGFP</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-017-18045-y</t>
+  </si>
+  <si>
+    <t>usGFP</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/bit.25451</t>
+  </si>
+  <si>
+    <t>moxGFP</t>
+  </si>
+  <si>
+    <t>oxGFP</t>
+  </si>
+  <si>
+    <t>Superfolder GFP</t>
+  </si>
+  <si>
+    <t>Folding Reporter GFP</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/10904</t>
+  </si>
+  <si>
+    <t>αGFP</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nbt0396-315</t>
+  </si>
+  <si>
+    <t>BrUSLEE</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-018-31687-w</t>
+  </si>
+  <si>
+    <t>SiriusGFP</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jneumeth.2018.12.008</t>
+  </si>
+  <si>
+    <t>mEmerald</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>mKalama1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/bi700199g</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7554/elife.00248</t>
+  </si>
+  <si>
+    <t>rsEGFP</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nature10497</t>
+  </si>
+  <si>
+    <t>mEGFP</t>
+  </si>
+  <si>
+    <t>mAmetrine</t>
+  </si>
+  <si>
+    <t>EGFP</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>sg50</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nsb0597-361</t>
+  </si>
+  <si>
+    <t>sg42</t>
+  </si>
+  <si>
+    <t>sg25</t>
+  </si>
+  <si>
+    <t>sg12</t>
+  </si>
+  <si>
+    <t>sg11</t>
+  </si>
+  <si>
+    <t>moxBFP</t>
+  </si>
+  <si>
+    <t>oxBFP</t>
+  </si>
+  <si>
+    <t>EBFP2</t>
+  </si>
+  <si>
+    <t>EBFP1.5</t>
+  </si>
+  <si>
+    <t>EBFP1.2</t>
+  </si>
+  <si>
+    <t>EBFP</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1074/jbc.273.14.8212</t>
+  </si>
+  <si>
+    <t>BFP.A5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nbt1264</t>
+  </si>
+  <si>
+    <t>Azurite</t>
+  </si>
+  <si>
+    <t>BFP</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0378-1119(95)00768-7</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>avGFP</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0378-1119(92)90691-h</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nbt1172</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CFP</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1073/pnas.91.26.12501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Superfolder CFP</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/nbt1172</t>
-  </si>
-  <si>
-    <t>Superfolder YFP</t>
-  </si>
-  <si>
-    <t>rsFolder2</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/srep18459</t>
-  </si>
-  <si>
-    <t>rsFolder</t>
-  </si>
-  <si>
-    <t>muGFP</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-017-18045-y</t>
-  </si>
-  <si>
-    <t>usGFP</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/bit.25451</t>
-  </si>
-  <si>
-    <t>moxGFP</t>
-  </si>
-  <si>
-    <t>oxGFP</t>
-  </si>
-  <si>
-    <t>Superfolder GFP</t>
-  </si>
-  <si>
-    <t>Folding Reporter GFP</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/10904</t>
-  </si>
-  <si>
-    <t>αGFP</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/nbt0396-315</t>
-  </si>
-  <si>
-    <t>BrUSLEE</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-018-31687-w</t>
-  </si>
-  <si>
-    <t>SiriusGFP</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.jneumeth.2018.12.008</t>
-  </si>
-  <si>
-    <t>mEmerald</t>
-  </si>
-  <si>
-    <t>Emerald</t>
-  </si>
-  <si>
-    <t>mKalama1</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1021/bi700199g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>rsEGFP2</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.7554/elife.00248</t>
-  </si>
-  <si>
-    <t>rsEGFP</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/nature10497</t>
-  </si>
-  <si>
-    <t>mEGFP</t>
-  </si>
-  <si>
-    <t>mAmetrine</t>
-  </si>
-  <si>
-    <t>EGFP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFP5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P11</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>sg50</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/nsb0597-361</t>
-  </si>
-  <si>
-    <t>sg42</t>
-  </si>
-  <si>
-    <t>sg25</t>
-  </si>
-  <si>
-    <t>sg12</t>
-  </si>
-  <si>
-    <t>sg11</t>
-  </si>
-  <si>
-    <t>moxBFP</t>
-  </si>
-  <si>
-    <t>oxBFP</t>
-  </si>
-  <si>
-    <t>EBFP2</t>
-  </si>
-  <si>
-    <t>EBFP1.5</t>
-  </si>
-  <si>
-    <t>EBFP1.2</t>
-  </si>
-  <si>
-    <t>EBFP</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1074/jbc.273.14.8212</t>
-  </si>
-  <si>
-    <t>BFP.A5</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/nbt1264</t>
-  </si>
-  <si>
-    <t>Azurite</t>
-  </si>
-  <si>
-    <t>BFP</t>
-  </si>
-  <si>
-    <t>BFP5</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/0378-1119(95)00768-7</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>avGFP</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/0378-1119(92)90691-h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -910,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2793,7 +2803,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B72">
         <v>456</v>
@@ -2802,12 +2812,12 @@
         <v>480</v>
       </c>
       <c r="J72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="B73">
         <v>430</v>
@@ -2816,12 +2826,12 @@
         <v>479</v>
       </c>
       <c r="J73" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B74">
         <v>513</v>
@@ -2830,12 +2840,12 @@
         <v>527</v>
       </c>
       <c r="J74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B75">
         <v>478</v>
@@ -2856,12 +2866,12 @@
         <v>5.5</v>
       </c>
       <c r="J75" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B76">
         <v>477</v>
@@ -2882,12 +2892,12 @@
         <v>5.5</v>
       </c>
       <c r="J76" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B77">
         <v>490</v>
@@ -2905,12 +2915,12 @@
         <v>52.65</v>
       </c>
       <c r="J77" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B78">
         <v>490</v>
@@ -2928,12 +2938,12 @@
         <v>46.35</v>
       </c>
       <c r="J78" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B79">
         <v>486</v>
@@ -2959,7 +2969,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B80">
         <v>486</v>
@@ -2982,7 +2992,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B81">
         <v>485</v>
@@ -3003,12 +3013,12 @@
         <v>13.6</v>
       </c>
       <c r="J81" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B82">
         <v>490</v>
@@ -3026,12 +3036,12 @@
         <v>59.33</v>
       </c>
       <c r="J82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B83">
         <v>397</v>
@@ -3049,12 +3059,12 @@
         <v>23.7</v>
       </c>
       <c r="J83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B84">
         <v>487</v>
@@ -3075,12 +3085,12 @@
         <v>0.82</v>
       </c>
       <c r="J84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B85">
         <v>504</v>
@@ -3101,12 +3111,12 @@
         <v>5.29</v>
       </c>
       <c r="J85" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B86">
         <v>487</v>
@@ -3135,7 +3145,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B87">
         <v>487</v>
@@ -3161,7 +3171,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B88">
         <v>385</v>
@@ -3182,28 +3192,70 @@
         <v>5.5</v>
       </c>
       <c r="J88" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>175</v>
+      </c>
+      <c r="B89">
+        <v>478</v>
+      </c>
+      <c r="C89">
+        <v>503</v>
+      </c>
+      <c r="D89">
+        <v>61300</v>
+      </c>
+      <c r="E89">
+        <v>0.3</v>
+      </c>
+      <c r="F89">
+        <v>18.39</v>
+      </c>
+      <c r="G89">
+        <v>5.8</v>
+      </c>
+      <c r="H89">
+        <v>20</v>
       </c>
       <c r="J89" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="B90">
+        <v>493</v>
+      </c>
+      <c r="C90">
+        <v>510</v>
+      </c>
+      <c r="D90">
+        <v>47000</v>
+      </c>
+      <c r="E90">
+        <v>0.36</v>
+      </c>
+      <c r="F90">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="G90">
+        <v>6.5</v>
+      </c>
+      <c r="H90">
+        <v>180</v>
       </c>
       <c r="J90" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B91">
         <v>488</v>
@@ -3229,7 +3281,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B92">
         <v>406</v>
@@ -3258,7 +3310,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B93">
         <v>488</v>
@@ -3290,7 +3342,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B94">
         <v>471</v>
@@ -3299,12 +3351,12 @@
         <v>502</v>
       </c>
       <c r="J94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B95">
         <v>471</v>
@@ -3313,12 +3365,12 @@
         <v>502</v>
       </c>
       <c r="J95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B96">
         <v>399</v>
@@ -3336,12 +3388,12 @@
         <v>12</v>
       </c>
       <c r="J96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B97">
         <v>384</v>
@@ -3359,12 +3411,12 @@
         <v>4.12</v>
       </c>
       <c r="J97" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B98">
         <v>384</v>
@@ -3382,12 +3434,12 @@
         <v>3.74</v>
       </c>
       <c r="J98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B99">
         <v>474</v>
@@ -3405,12 +3457,12 @@
         <v>19.91</v>
       </c>
       <c r="J99" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B100">
         <v>396</v>
@@ -3428,12 +3480,12 @@
         <v>15.55</v>
       </c>
       <c r="J100" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B101">
         <v>385</v>
@@ -3451,12 +3503,12 @@
         <v>10.67</v>
       </c>
       <c r="J101" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B102">
         <v>385</v>
@@ -3479,7 +3531,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B103">
         <v>385</v>
@@ -3502,7 +3554,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B104">
         <v>383</v>
@@ -3529,12 +3581,12 @@
         <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B105">
         <v>381</v>
@@ -3555,12 +3607,12 @@
         <v>4.8</v>
       </c>
       <c r="J105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B106">
         <v>379</v>
@@ -3581,12 +3633,12 @@
         <v>6.6</v>
       </c>
       <c r="J106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B107">
         <v>380</v>
@@ -3604,12 +3656,12 @@
         <v>6.3</v>
       </c>
       <c r="J107" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B108">
         <v>383</v>
@@ -3630,12 +3682,12 @@
         <v>3.27</v>
       </c>
       <c r="J108" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B109">
         <v>383</v>
@@ -3662,12 +3714,12 @@
         <v>3.65</v>
       </c>
       <c r="J109" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B110">
         <v>381</v>
@@ -3690,7 +3742,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B111">
         <v>385</v>
@@ -3699,12 +3751,12 @@
         <v>450</v>
       </c>
       <c r="J111" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B112">
         <v>382</v>
@@ -3722,12 +3774,12 @@
         <v>0.5</v>
       </c>
       <c r="J112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B113">
         <v>395</v>
@@ -3748,7 +3800,7 @@
         <v>4.5</v>
       </c>
       <c r="J113" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
